--- a/tests/artifact/script/UI-DeliveryNote.xlsx
+++ b/tests/artifact/script/UI-DeliveryNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="620" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="620" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="941">
   <si>
     <t>target</t>
   </si>
@@ -2890,10 +2890,13 @@
     <t>${checkbox.Supplier}</t>
   </si>
   <si>
-    <t>Verify Customer State</t>
-  </si>
-  <si>
-    <t>${DeliverTo.State}</t>
+    <t>Verify Purchaser Details</t>
+  </si>
+  <si>
+    <t>Verify Purchaser Name</t>
+  </si>
+  <si>
+    <t>Primary Godown</t>
   </si>
   <si>
     <t>Bought goods worth Rupees [NUMBER(${sale.price}) =&gt; minus(${discount})] from ${SupplierName} by cash, ref invoice no. ${orderNo}</t>
@@ -6941,10 +6944,10 @@
   <sheetPr/>
   <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -7150,7 +7153,7 @@
       <c r="C13" s="28"/>
       <c r="D13" s="33"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="34"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -10313,7 +10316,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C11 C12 C36 C13:C14 C34:C35 C37:C196">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D11 D12 D36 D13:D14 D34:D35 D37:D196">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D11 D12 F13 D36 D13:D14 D34:D35 D37:D196">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -13724,12 +13727,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -15150,7 +15153,7 @@
         <v>858</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>859</v>
+        <v>937</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>30</v>
@@ -15175,7 +15178,7 @@
     <row r="57" customFormat="1" ht="15.5" spans="1:15">
       <c r="A57" s="27"/>
       <c r="B57" s="31" t="s">
-        <v>861</v>
+        <v>938</v>
       </c>
       <c r="C57" s="32" t="s">
         <v>30</v>
@@ -15187,7 +15190,7 @@
         <v>862</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
@@ -15202,7 +15205,7 @@
     <row r="58" customFormat="1" ht="15.5" spans="1:15">
       <c r="A58" s="27"/>
       <c r="B58" s="31" t="s">
-        <v>937</v>
+        <v>863</v>
       </c>
       <c r="C58" s="32" t="s">
         <v>30</v>
@@ -15211,10 +15214,10 @@
         <v>319</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>938</v>
+        <v>864</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>781</v>
+        <v>865</v>
       </c>
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
@@ -15229,7 +15232,7 @@
     <row r="59" customFormat="1" ht="15.5" spans="1:15">
       <c r="A59" s="27"/>
       <c r="B59" s="31" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C59" s="32" t="s">
         <v>30</v>
@@ -15238,10 +15241,10 @@
         <v>319</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
@@ -15256,7 +15259,7 @@
     <row r="60" customFormat="1" ht="15.5" spans="1:15">
       <c r="A60" s="27"/>
       <c r="B60" s="31" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>30</v>
@@ -15265,10 +15268,10 @@
         <v>319</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
@@ -15283,7 +15286,7 @@
     <row r="61" customFormat="1" ht="15.5" spans="1:15">
       <c r="A61" s="27"/>
       <c r="B61" s="31" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C61" s="32" t="s">
         <v>30</v>
@@ -15292,10 +15295,10 @@
         <v>319</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>870</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>871</v>
+        <v>873</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>874</v>
       </c>
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
@@ -15310,7 +15313,7 @@
     <row r="62" customFormat="1" ht="15.5" spans="1:15">
       <c r="A62" s="27"/>
       <c r="B62" s="31" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C62" s="32" t="s">
         <v>30</v>
@@ -15319,10 +15322,10 @@
         <v>319</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
@@ -15337,7 +15340,7 @@
     <row r="63" customFormat="1" ht="15.5" spans="1:15">
       <c r="A63" s="27"/>
       <c r="B63" s="31" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C63" s="32" t="s">
         <v>30</v>
@@ -15346,10 +15349,10 @@
         <v>319</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
@@ -15364,7 +15367,7 @@
     <row r="64" customFormat="1" ht="15.5" spans="1:15">
       <c r="A64" s="27"/>
       <c r="B64" s="31" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C64" s="32" t="s">
         <v>30</v>
@@ -15373,10 +15376,10 @@
         <v>319</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
@@ -15391,7 +15394,7 @@
     <row r="65" customFormat="1" ht="15.5" spans="1:15">
       <c r="A65" s="27"/>
       <c r="B65" s="31" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="C65" s="32" t="s">
         <v>30</v>
@@ -15400,10 +15403,10 @@
         <v>319</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>883</v>
+        <v>884</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>837</v>
       </c>
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
@@ -15418,7 +15421,7 @@
     <row r="66" customFormat="1" ht="15.5" spans="1:15">
       <c r="A66" s="27"/>
       <c r="B66" s="31" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C66" s="32" t="s">
         <v>30</v>
@@ -15427,10 +15430,10 @@
         <v>319</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>837</v>
+        <v>886</v>
       </c>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
@@ -15445,7 +15448,7 @@
     <row r="67" customFormat="1" ht="15.5" spans="1:15">
       <c r="A67" s="27"/>
       <c r="B67" s="31" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C67" s="32" t="s">
         <v>30</v>
@@ -15454,10 +15457,10 @@
         <v>319</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
@@ -15472,7 +15475,7 @@
     <row r="68" customFormat="1" ht="15.5" spans="1:15">
       <c r="A68" s="27"/>
       <c r="B68" s="31" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C68" s="32" t="s">
         <v>30</v>
@@ -15481,10 +15484,10 @@
         <v>319</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>887</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>888</v>
+        <v>889</v>
+      </c>
+      <c r="F68" s="30">
+        <v>2</v>
       </c>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
@@ -15499,7 +15502,7 @@
     <row r="69" customFormat="1" ht="15.5" spans="1:15">
       <c r="A69" s="27"/>
       <c r="B69" s="31" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C69" s="32" t="s">
         <v>30</v>
@@ -15508,10 +15511,10 @@
         <v>319</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>889</v>
-      </c>
-      <c r="F69" s="30">
-        <v>2</v>
+        <v>890</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>891</v>
       </c>
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
@@ -15526,7 +15529,7 @@
     <row r="70" customFormat="1" ht="15.5" spans="1:15">
       <c r="A70" s="27"/>
       <c r="B70" s="31" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C70" s="32" t="s">
         <v>30</v>
@@ -15535,10 +15538,10 @@
         <v>319</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>891</v>
+        <v>790</v>
       </c>
       <c r="G70" s="33"/>
       <c r="H70" s="33"/>
@@ -15550,10 +15553,10 @@
       <c r="N70" s="57"/>
       <c r="O70" s="49"/>
     </row>
-    <row r="71" customFormat="1" ht="15.5" spans="1:15">
+    <row r="71" customFormat="1" ht="16.5" spans="1:15">
       <c r="A71" s="27"/>
       <c r="B71" s="31" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C71" s="32" t="s">
         <v>30</v>
@@ -15562,10 +15565,10 @@
         <v>319</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>892</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>790</v>
+        <v>893</v>
+      </c>
+      <c r="F71" s="60" t="s">
+        <v>894</v>
       </c>
       <c r="G71" s="33"/>
       <c r="H71" s="33"/>
@@ -15577,10 +15580,10 @@
       <c r="N71" s="57"/>
       <c r="O71" s="49"/>
     </row>
-    <row r="72" customFormat="1" ht="16.5" spans="1:15">
+    <row r="72" customFormat="1" ht="15.5" spans="1:15">
       <c r="A72" s="27"/>
       <c r="B72" s="31" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="C72" s="32" t="s">
         <v>30</v>
@@ -15589,10 +15592,10 @@
         <v>319</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>893</v>
-      </c>
-      <c r="F72" s="60" t="s">
-        <v>894</v>
+        <v>896</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>800</v>
       </c>
       <c r="G72" s="33"/>
       <c r="H72" s="33"/>
@@ -15607,19 +15610,19 @@
     <row r="73" customFormat="1" ht="15.5" spans="1:15">
       <c r="A73" s="27"/>
       <c r="B73" s="31" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C73" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>319</v>
+        <v>535</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="G73" s="33"/>
       <c r="H73" s="33"/>
@@ -15634,19 +15637,19 @@
     <row r="74" customFormat="1" ht="15.5" spans="1:15">
       <c r="A74" s="27"/>
       <c r="B74" s="31" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C74" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>535</v>
+        <v>319</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>898</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>899</v>
+        <v>901</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>902</v>
       </c>
       <c r="G74" s="33"/>
       <c r="H74" s="33"/>
@@ -15661,7 +15664,7 @@
     <row r="75" customFormat="1" ht="15.5" spans="1:15">
       <c r="A75" s="27"/>
       <c r="B75" s="31" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C75" s="32" t="s">
         <v>30</v>
@@ -15670,10 +15673,10 @@
         <v>319</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>901</v>
-      </c>
-      <c r="F75" s="38" t="s">
-        <v>902</v>
+        <v>904</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>905</v>
       </c>
       <c r="G75" s="33"/>
       <c r="H75" s="33"/>
@@ -15688,7 +15691,7 @@
     <row r="76" customFormat="1" ht="15.5" spans="1:15">
       <c r="A76" s="27"/>
       <c r="B76" s="31" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C76" s="32" t="s">
         <v>30</v>
@@ -15697,10 +15700,10 @@
         <v>319</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>904</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>905</v>
+        <v>907</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>908</v>
       </c>
       <c r="G76" s="33"/>
       <c r="H76" s="33"/>
@@ -15715,7 +15718,7 @@
     <row r="77" customFormat="1" ht="15.5" spans="1:15">
       <c r="A77" s="27"/>
       <c r="B77" s="31" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C77" s="32" t="s">
         <v>30</v>
@@ -15724,10 +15727,10 @@
         <v>319</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>907</v>
-      </c>
-      <c r="F77" s="38" t="s">
-        <v>908</v>
+        <v>910</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>911</v>
       </c>
       <c r="G77" s="33"/>
       <c r="H77" s="33"/>
@@ -15742,7 +15745,7 @@
     <row r="78" customFormat="1" ht="15.5" spans="1:15">
       <c r="A78" s="27"/>
       <c r="B78" s="31" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C78" s="32" t="s">
         <v>30</v>
@@ -15751,10 +15754,10 @@
         <v>319</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
@@ -15769,7 +15772,7 @@
     <row r="79" customFormat="1" ht="15.5" spans="1:15">
       <c r="A79" s="27"/>
       <c r="B79" s="31" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C79" s="32" t="s">
         <v>30</v>
@@ -15778,10 +15781,10 @@
         <v>319</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>913</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>914</v>
+        <v>916</v>
+      </c>
+      <c r="F79" s="38" t="s">
+        <v>908</v>
       </c>
       <c r="G79" s="33"/>
       <c r="H79" s="33"/>
@@ -15796,7 +15799,7 @@
     <row r="80" customFormat="1" ht="15.5" spans="1:15">
       <c r="A80" s="27"/>
       <c r="B80" s="31" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C80" s="32" t="s">
         <v>30</v>
@@ -15805,10 +15808,10 @@
         <v>319</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="G80" s="33"/>
       <c r="H80" s="33"/>
@@ -15820,10 +15823,10 @@
       <c r="N80" s="57"/>
       <c r="O80" s="49"/>
     </row>
-    <row r="81" customFormat="1" ht="15.5" spans="1:15">
+    <row r="81" customFormat="1" ht="16.5" spans="1:15">
       <c r="A81" s="27"/>
       <c r="B81" s="31" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C81" s="32" t="s">
         <v>30</v>
@@ -15832,10 +15835,10 @@
         <v>319</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>918</v>
-      </c>
-      <c r="F81" s="38" t="s">
-        <v>919</v>
+        <v>921</v>
+      </c>
+      <c r="F81" s="60" t="s">
+        <v>940</v>
       </c>
       <c r="G81" s="33"/>
       <c r="H81" s="33"/>
@@ -15847,23 +15850,23 @@
       <c r="N81" s="57"/>
       <c r="O81" s="49"/>
     </row>
-    <row r="82" customFormat="1" ht="16.5" spans="1:15">
-      <c r="A82" s="27"/>
+    <row r="82" ht="23" customHeight="1" spans="1:15">
+      <c r="A82" s="27" t="s">
+        <v>923</v>
+      </c>
       <c r="B82" s="31" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C82" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>921</v>
-      </c>
-      <c r="F82" s="60" t="s">
-        <v>939</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E82" s="40" t="s">
+        <v>925</v>
+      </c>
+      <c r="F82" s="33"/>
       <c r="G82" s="33"/>
       <c r="H82" s="33"/>
       <c r="I82" s="33"/>
@@ -15875,21 +15878,11 @@
       <c r="O82" s="49"/>
     </row>
     <row r="83" ht="23" customHeight="1" spans="1:15">
-      <c r="A83" s="27" t="s">
-        <v>923</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>924</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>925</v>
-      </c>
+      <c r="A83" s="27"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
@@ -15952,23 +15945,6 @@
       <c r="N86" s="57"/>
       <c r="O86" s="49"/>
     </row>
-    <row r="87" ht="23" customHeight="1" spans="1:15">
-      <c r="A87" s="27"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="49"/>
-      <c r="L87" s="57"/>
-      <c r="M87" s="58"/>
-      <c r="N87" s="57"/>
-      <c r="O87" s="49"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -16065,114 +16041,114 @@
       <formula>LEFT(N48,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N62">
+    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N62,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N62,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N62,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N63">
-    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="46" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N63,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N63,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N63,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64">
-    <cfRule type="beginsWith" dxfId="0" priority="46" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N65">
-    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N69">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N69,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N69,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N69,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N70">
-    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N70,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N70,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N70,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N71">
-    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N71,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N71,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N71,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N72">
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N78">
+    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N78,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N78,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N78,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N79">
-    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="58" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N79,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N79,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N79,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N80">
-    <cfRule type="beginsWith" dxfId="0" priority="58" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N80,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N80,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N80,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N81">
-    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N81,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N81,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N81,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N82">
-    <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N82,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N82,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N82,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
@@ -16186,7 +16162,7 @@
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N56:N62">
+  <conditionalFormatting sqref="N56:N61">
     <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N56,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -16197,26 +16173,26 @@
       <formula>LEFT(N56,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N66:N69">
+  <conditionalFormatting sqref="N65:N68">
     <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N75:N76">
+  <conditionalFormatting sqref="N74:N75">
     <cfRule type="beginsWith" dxfId="0" priority="64" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="66" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N74,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N5:N11 N13:N21 N24:N37">
@@ -16230,7 +16206,7 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:N42 N45 N83:N87">
+  <conditionalFormatting sqref="N38:N42 N45 N82:N86">
     <cfRule type="beginsWith" dxfId="0" priority="211" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -16241,22 +16217,22 @@
       <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N73:N74 N77:N78">
+  <conditionalFormatting sqref="N72:N73 N76:N77">
     <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N73,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N73,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N73,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C29 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C27:C28 C30:C31 C84:C87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C29 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C27:C28 C30:C31 C83:C86">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D29 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D27:D28 D30:D31 D32:D33 D84:D87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D29 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D27:D28 D30:D31 D32:D33 D83:D86">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
